--- a/roostifyapitest/test-configuration.xlsx
+++ b/roostifyapitest/test-configuration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t>Test Suite</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -72,34 +69,97 @@
     <t>Value</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>Roostify API Suite</t>
   </si>
   <si>
-    <t>com.infrrd.roostifyapitest.testcase.QaAPI</t>
-  </si>
-  <si>
-    <t>creating_and_update_a_task</t>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>com.infrrd.roostifyapitest.testcase.CascadedTestcases</t>
+  </si>
+  <si>
+    <t>creating_loan_Application</t>
+  </si>
+  <si>
+    <t>submit_loan_Application</t>
+  </si>
+  <si>
+    <t>creating_Task</t>
+  </si>
+  <si>
+    <t>settings_api</t>
+  </si>
+  <si>
+    <t>retrieving_service</t>
+  </si>
+  <si>
+    <t>creating_lead</t>
+  </si>
+  <si>
+    <t>creating_message</t>
+  </si>
+  <si>
+    <t>retrieve_user</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>com.infrrd.roostifyapitest.testcase.IndividualTestcases</t>
+  </si>
+  <si>
+    <t>create_a_lead</t>
+  </si>
+  <si>
+    <t>retrieve_a_lead</t>
+  </si>
+  <si>
+    <t>creating_a_task</t>
+  </si>
+  <si>
+    <t>listing_tasks</t>
+  </si>
+  <si>
+    <t>retrieve_a_loan_application</t>
+  </si>
+  <si>
+    <t>update_a_loan_application</t>
+  </si>
+  <si>
+    <t>creating_a_message</t>
+  </si>
+  <si>
+    <t>creating_a_loan_application</t>
+  </si>
+  <si>
+    <t>retrieve_a_message</t>
   </si>
   <si>
     <t>display_all_tasks</t>
   </si>
   <si>
+    <t>update_a_task</t>
+  </si>
+  <si>
+    <t>submit_loan_application</t>
+  </si>
+  <si>
     <t>retrieving_accounts</t>
   </si>
   <si>
-    <t>Testcase to retreive all accounts</t>
-  </si>
-  <si>
-    <t>Testcase to display all tasks</t>
-  </si>
-  <si>
-    <t>Testcase to create and update a task</t>
-  </si>
-  <si>
-    <t>No Image Captured</t>
+    <t>retrieve_a_user_by_id</t>
+  </si>
+  <si>
+    <t>cascaded</t>
+  </si>
+  <si>
+    <t>individual</t>
   </si>
 </sst>
 </file>
@@ -107,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +193,86 @@
       <color indexed="17"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,12 +286,22 @@
     </fill>
     <fill>
       <patternFill patternType="lightDown">
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
         <bgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
         <bgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -169,19 +317,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,76 +671,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="12.54296875" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="12.26953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="s">
         <v>5</v>
       </c>
       <c r="AL2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
+        <v>9</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="AL6" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>$AL$2:$AL$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>$AO$2:$AO$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -554,17 +772,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="1.81640625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="59.54296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="41.26953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="53.7265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="32.7265625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="4.08984375" collapsed="true"/>
@@ -586,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -594,71 +812,350 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="11" t="s">
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="9" t="s">
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="46" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
